--- a/DayAhead Electric DR.xlsx
+++ b/DayAhead Electric DR.xlsx
@@ -580,7 +580,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H2">
-        <v>4306.10973778301</v>
+        <v>4239.71438219254</v>
       </c>
       <c r="I2">
         <v>2410.8076</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>92.7490642688462</v>
+        <v>29.6734764578946</v>
       </c>
       <c r="L2">
         <v>960</v>
       </c>
       <c r="M2">
-        <v>73.1808509688462</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H3">
-        <v>3731.47527710286</v>
+        <v>3762.47759826906</v>
       </c>
       <c r="I3">
         <v>2434.7716</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.4522051078947</v>
       </c>
       <c r="L3">
-        <v>974.980452105101</v>
+        <v>960</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.1052631578947</v>
       </c>
       <c r="N3">
-        <v>19.34694195</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>997.910149253731</v>
@@ -764,7 +764,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H4">
-        <v>3254.87379844961</v>
+        <v>3285.64320240529</v>
       </c>
       <c r="I4">
         <v>2459.55256969697</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>29.2309337578946</v>
       </c>
       <c r="L4">
-        <v>967.45170046168</v>
+        <v>960</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N4">
-        <v>19.1256706</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>1000</v>
@@ -856,7 +856,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H5">
-        <v>4512.96171216582</v>
+        <v>4011.17435523516</v>
       </c>
       <c r="I5">
         <v>2488.57656969697</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>505.969564542022</v>
+        <v>29.2715754578946</v>
       </c>
       <c r="L5">
         <v>960</v>
       </c>
       <c r="M5">
-        <v>486.803252242022</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H6">
-        <v>5915.62760183779</v>
+        <v>5338.35889119419</v>
       </c>
       <c r="I6">
         <v>2536.6636</v>
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1131.01020624202</v>
+        <v>582.604931130607</v>
       </c>
       <c r="L6">
-        <v>1073.21577240748</v>
+        <v>960</v>
       </c>
       <c r="M6">
-        <v>1111.80325224202</v>
+        <v>563.397977130607</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H7">
-        <v>5846.42256923222</v>
+        <v>5781.57833463286</v>
       </c>
       <c r="I7">
         <v>2575.6276</v>
@@ -1049,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1269.22133745</v>
+        <v>1207.61931458061</v>
       </c>
       <c r="L7">
-        <v>1334.58600538394</v>
+        <v>1091.40701956852</v>
       </c>
       <c r="M7">
-        <v>1250</v>
+        <v>1188.39797713061</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>1269.2357209</v>
       </c>
       <c r="L8">
-        <v>1628.12454037048</v>
+        <v>1370.92302158812</v>
       </c>
       <c r="M8">
         <v>1250</v>
@@ -1236,7 +1236,7 @@
         <v>1269.2726831</v>
       </c>
       <c r="L9">
-        <v>1920.92922901956</v>
+        <v>1664.37071403415</v>
       </c>
       <c r="M9">
         <v>1250</v>
@@ -1328,7 +1328,7 @@
         <v>1269.3096453</v>
       </c>
       <c r="L10">
-        <v>2213.00190594701</v>
+        <v>1957.08478724906</v>
       </c>
       <c r="M10">
         <v>1250</v>
@@ -1420,7 +1420,7 @@
         <v>1269.5021497</v>
       </c>
       <c r="L11">
-        <v>2504.34440118214</v>
+        <v>2249.06707528094</v>
       </c>
       <c r="M11">
         <v>1250</v>
@@ -1512,7 +1512,7 @@
         <v>1269.6946541</v>
       </c>
       <c r="L12">
-        <v>2794.95854017918</v>
+        <v>2540.31940759274</v>
       </c>
       <c r="M12">
         <v>1250</v>
@@ -1604,7 +1604,7 @@
         <v>1269.63862545</v>
       </c>
       <c r="L13">
-        <v>3084.84614382874</v>
+        <v>2830.84360907375</v>
       </c>
       <c r="M13">
         <v>1250</v>
@@ -1696,7 +1696,7 @@
         <v>1269.5825968</v>
       </c>
       <c r="L14">
-        <v>3374.00902846917</v>
+        <v>3120.64150005107</v>
       </c>
       <c r="M14">
         <v>1250</v>
@@ -1788,7 +1788,7 @@
         <v>1269.554253775</v>
       </c>
       <c r="L15">
-        <v>3662.44900589799</v>
+        <v>3409.71489630094</v>
       </c>
       <c r="M15">
         <v>1250</v>
@@ -1880,7 +1880,7 @@
         <v>1269.52591075</v>
       </c>
       <c r="L16">
-        <v>3950.16788338325</v>
+        <v>3698.06560906019</v>
       </c>
       <c r="M16">
         <v>1250</v>
@@ -1972,7 +1972,7 @@
         <v>1268.43368125</v>
       </c>
       <c r="L17">
-        <v>4237.16746367479</v>
+        <v>3985.69544503754</v>
       </c>
       <c r="M17">
         <v>1250</v>
@@ -2064,7 +2064,7 @@
         <v>1267.34145175</v>
       </c>
       <c r="L18">
-        <v>4523.4495450156</v>
+        <v>4272.60620642495</v>
       </c>
       <c r="M18">
         <v>1250</v>
@@ -2156,7 +2156,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="L19">
-        <v>4809.01592115306</v>
+        <v>4558.79969090888</v>
       </c>
       <c r="M19">
         <v>1250</v>
@@ -2248,7 +2248,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="L20">
-        <v>5093.86838135018</v>
+        <v>4844.27769168161</v>
       </c>
       <c r="M20">
         <v>1250</v>
@@ -2340,7 +2340,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="L21">
-        <v>5378.00871039681</v>
+        <v>5129.04199745241</v>
       </c>
       <c r="M21">
         <v>1250</v>
@@ -2432,7 +2432,7 @@
         <v>1251.4827966</v>
       </c>
       <c r="L22">
-        <v>5661.43868862081</v>
+        <v>5413.09439245878</v>
       </c>
       <c r="M22">
         <v>1250</v>
@@ -2524,7 +2524,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="L23">
-        <v>5944.16009189926</v>
+        <v>5696.43665647763</v>
       </c>
       <c r="M23">
         <v>1250</v>
@@ -2616,7 +2616,7 @@
         <v>1236.208249</v>
       </c>
       <c r="L24">
-        <v>6226.17469166952</v>
+        <v>5979.07056483644</v>
       </c>
       <c r="M24">
         <v>1250</v>
@@ -2708,7 +2708,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="L25">
-        <v>6507.48425494034</v>
+        <v>6260.99788842435</v>
       </c>
       <c r="M25">
         <v>1250</v>
@@ -2800,7 +2800,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="L26">
-        <v>6788.09054430299</v>
+        <v>6542.22039370329</v>
       </c>
       <c r="M26">
         <v>1250</v>
@@ -2892,7 +2892,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="L27">
-        <v>7067.99531794224</v>
+        <v>6822.73984271903</v>
       </c>
       <c r="M27">
         <v>1250</v>
@@ -2984,7 +2984,7 @@
         <v>1202.60218405</v>
       </c>
       <c r="L28">
-        <v>7347.20032964738</v>
+        <v>7102.55799311223</v>
       </c>
       <c r="M28">
         <v>1250</v>
@@ -3076,7 +3076,7 @@
         <v>1182.2661073</v>
       </c>
       <c r="L29">
-        <v>7625.70732882326</v>
+        <v>7381.67659812945</v>
       </c>
       <c r="M29">
         <v>1250</v>
@@ -3168,7 +3168,7 @@
         <v>1161.9300305</v>
       </c>
       <c r="L30">
-        <v>7903.5180605012</v>
+        <v>7660.09740663413</v>
       </c>
       <c r="M30">
         <v>1250</v>
@@ -3260,7 +3260,7 @@
         <v>1132.7777633</v>
       </c>
       <c r="L31">
-        <v>8180.63426534995</v>
+        <v>7937.82216311754</v>
       </c>
       <c r="M31">
         <v>1250</v>
@@ -3340,7 +3340,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H32">
-        <v>4832.28853302123</v>
+        <v>5319.09218528439</v>
       </c>
       <c r="I32">
         <v>2410.5626</v>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>641.16202645</v>
+        <v>1103.6254961</v>
       </c>
       <c r="L32">
-        <v>8457.057679686581</v>
+        <v>8214.85260770975</v>
       </c>
       <c r="M32">
-        <v>787.53653035</v>
+        <v>1250</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H33">
-        <v>4255.59152377647</v>
+        <v>4838.12924806178</v>
       </c>
       <c r="I33">
         <v>2434.7876</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>553.41083807105</v>
       </c>
       <c r="L33">
-        <v>8622.95496144549</v>
+        <v>8491.190476190481</v>
       </c>
       <c r="M33">
-        <v>162.53653035</v>
+        <v>715.94736842105</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>0.65550003</v>
       </c>
       <c r="H34">
-        <v>3771.15358043733</v>
+        <v>3857.55358043732</v>
       </c>
       <c r="I34">
         <v>2069.22578181818</v>
       </c>
       <c r="J34">
-        <v>169.763628865</v>
+        <v>83.3636288650022</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>8640</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>90.9473684210503</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>8618.4</v>
+        <v>8640</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>8596.853999999999</v>
+        <v>8618.4</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>8575.361865000001</v>
+        <v>8596.853999999999</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>8553.923460337501</v>
+        <v>8575.361865000001</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>8532.53865168666</v>
+        <v>8553.923460337501</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>8511.20730505744</v>
+        <v>8532.53865168666</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>8489.929286794801</v>
+        <v>8511.20730505744</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>8468.704463577809</v>
+        <v>8489.929286794801</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>8447.53270241887</v>
+        <v>8468.704463577809</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>8426.413870662829</v>
+        <v>8447.53270241887</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>8405.347835986169</v>
+        <v>8426.413870662829</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>8384.3344663962</v>
+        <v>8405.347835986169</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>8363.37363023021</v>
+        <v>8384.3344663962</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>8342.465196154641</v>
+        <v>8363.37363023021</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>8321.60903316425</v>
+        <v>8342.465196154641</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4996,22 +4996,22 @@
         <v>0.65550003</v>
       </c>
       <c r="H50">
-        <v>4517.90272866098</v>
+        <v>4412.88671082824</v>
       </c>
       <c r="I50">
         <v>4009.65548969697</v>
       </c>
       <c r="J50">
-        <v>130.545085292511</v>
+        <v>235.561103125247</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>8300.80501058134</v>
+        <v>8321.60903316425</v>
       </c>
       <c r="M50">
-        <v>188.917703544725</v>
+        <v>78.3745268786879</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>8324.92095264676</v>
+        <v>8319.418960715029</v>
       </c>
       <c r="M51">
         <v>327.3638722</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>8381.85756991265</v>
+        <v>8376.369332960739</v>
       </c>
       <c r="M52">
         <v>328.3941616</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>8438.89653936787</v>
+        <v>8433.422023008339</v>
       </c>
       <c r="M53">
         <v>328.359253</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>8495.78462060695</v>
+        <v>8490.323790538319</v>
       </c>
       <c r="M54">
         <v>328.3243443</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>8552.522190826679</v>
+        <v>8547.075012833229</v>
       </c>
       <c r="M55">
         <v>324.834954</v>
@@ -5548,22 +5548,22 @@
         <v>0.65550003</v>
       </c>
       <c r="H56">
-        <v>4516.89213782055</v>
+        <v>4538.57204241394</v>
       </c>
       <c r="I56">
         <v>4721.83804969697</v>
       </c>
       <c r="J56">
-        <v>92.35214124921811</v>
+        <v>70.67223665583001</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>8608.28918692462</v>
+        <v>8602.855626876149</v>
       </c>
       <c r="M56">
-        <v>224.132783337665</v>
+        <v>246.953735541232</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5640,13 +5640,13 @@
         <v>0.65550003</v>
       </c>
       <c r="H57">
-        <v>3936.95790322328</v>
+        <v>3958.63780781667</v>
       </c>
       <c r="I57">
         <v>4842.61300969697</v>
       </c>
       <c r="J57">
-        <v>674.818096776718</v>
+        <v>653.13819218333</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>400.867216662335</v>
+        <v>378.046264458768</v>
       </c>
       <c r="O57">
         <v>1000</v>
@@ -5732,25 +5732,25 @@
         <v>1.04989998</v>
       </c>
       <c r="H58">
-        <v>3834.9306453702</v>
+        <v>3856.61054996359</v>
       </c>
       <c r="I58">
         <v>4962.26956969697</v>
       </c>
       <c r="J58">
-        <v>1257.28405230422</v>
+        <v>1235.60414771083</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>8512.90862719412</v>
+        <v>8518.9141409319</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1025.86721666233</v>
+        <v>1003.04626445877</v>
       </c>
       <c r="O58">
         <v>1000</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>8221.661298609741</v>
+        <v>8233.657312300949</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>7872.15977694216</v>
+        <v>7884.12580059914</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>7523.53200907875</v>
+        <v>7535.46811767659</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>7175.775810635</v>
+        <v>7187.68207896135</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>6828.88900268736</v>
+        <v>6840.7655053429</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>6482.86941175959</v>
+        <v>6494.71622315849</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>6137.71486980914</v>
+        <v>6149.53206417954</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>5793.42321421357</v>
+        <v>5805.21086559804</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>5449.99228775698</v>
+        <v>5461.75047001299</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>5107.41993861654</v>
+        <v>5119.1487254169</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>4765.70402034894</v>
+        <v>4777.40348518231</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>4589.31607608755</v>
+        <v>4600.98629225883</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>544.50962597</v>
       </c>
       <c r="L71">
-        <v>4577.84278589733</v>
+        <v>4589.48382652818</v>
       </c>
       <c r="M71">
         <v>625</v>
@@ -7032,7 +7032,7 @@
         <v>1194.56987885</v>
       </c>
       <c r="L72">
-        <v>4714.83567893258</v>
+        <v>4726.44761696186</v>
       </c>
       <c r="M72">
         <v>1250</v>
@@ -7124,7 +7124,7 @@
         <v>1142.06353777498</v>
       </c>
       <c r="L73">
-        <v>4999.92358973525</v>
+        <v>5011.50649791946</v>
       </c>
       <c r="M73">
         <v>1185.68594660498</v>
@@ -7213,13 +7213,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>528.871250104977</v>
+        <v>528.871250104981</v>
       </c>
       <c r="L74">
-        <v>5269.0241930796</v>
+        <v>5280.57814399334</v>
       </c>
       <c r="M74">
-        <v>560.6859466049769</v>
+        <v>560.685946604981</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>3105.065912121212</v>
       </c>
       <c r="AD74">
-        <v>2868.04264505508</v>
+        <v>5142.44890463927</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7302,19 +7302,19 @@
         <v>3143.43253181818</v>
       </c>
       <c r="J75">
-        <v>79.0415213105549</v>
+        <v>79.04152131055081</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>5389.01454491558</v>
+        <v>5400.53961095204</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>62.1622967295314</v>
+        <v>62.1622967295271</v>
       </c>
       <c r="O75">
         <v>1000</v>
@@ -7362,7 +7362,7 @@
         <v>2992.928387121212</v>
       </c>
       <c r="AD75">
-        <v>2225.51398654712</v>
+        <v>4499.92024613131</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7394,19 +7394,19 @@
         <v>2919.15748181818</v>
       </c>
       <c r="J76">
-        <v>621.1571780690811</v>
+        <v>662.554899053051</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>5359.18350941394</v>
+        <v>5370.67976278531</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>643.585748325348</v>
+        <v>687.162296729527</v>
       </c>
       <c r="O76">
         <v>1000</v>
@@ -7421,10 +7421,10 @@
         <v>17.8804635</v>
       </c>
       <c r="S76">
-        <v>188.328235195806</v>
+        <v>227.754636132925</v>
       </c>
       <c r="T76">
-        <v>809.8114113419658</v>
+        <v>979.3449353715774</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>427.692588658035</v>
+        <v>258.159064628424</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>2880.790862121212</v>
       </c>
       <c r="AD76">
-        <v>1572.18120930233</v>
+        <v>3846.58746888652</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7513,10 +7513,10 @@
         <v>12.8889432</v>
       </c>
       <c r="S77">
-        <v>147.819534883721</v>
+        <v>147.819534883724</v>
       </c>
       <c r="T77">
-        <v>635.6240000000003</v>
+        <v>635.6240000000132</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -7525,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>500</v>
+        <v>499.999999999987</v>
       </c>
       <c r="X77">
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>870.600222373617</v>
+        <v>917.692867937398</v>
       </c>
       <c r="Z77">
         <v>800</v>
@@ -7546,7 +7546,7 @@
         <v>2768.653337121212</v>
       </c>
       <c r="AD77">
-        <v>1484.82858180622</v>
+        <v>3759.23484139041</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>729.970133039981</v>
+        <v>776.968593312637</v>
       </c>
       <c r="Z78">
         <v>800</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>589.621303885012</v>
+        <v>636.525767237123</v>
       </c>
       <c r="Z79">
         <v>800</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>449.553172388353</v>
+        <v>496.36382681376</v>
       </c>
       <c r="Z80">
         <v>800</v>
@@ -7848,7 +7848,7 @@
         <v>1.04989998</v>
       </c>
       <c r="H81">
-        <v>3946.5843818223</v>
+        <v>3905.59898544783</v>
       </c>
       <c r="I81">
         <v>1797.78223181818</v>
@@ -7881,10 +7881,10 @@
         <v>0.711204375</v>
       </c>
       <c r="S81">
-        <v>172.29023255814</v>
+        <v>133.256521725311</v>
       </c>
       <c r="T81">
-        <v>740.8480000000019</v>
+        <v>573.0030434188373</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -7893,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>167.844956581164</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>309.765177154687</v>
+        <v>356.482210271244</v>
       </c>
       <c r="Z81">
         <v>800</v>
@@ -8768,7 +8768,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H91">
-        <v>5504.91856253909</v>
+        <v>5310.12313454442</v>
       </c>
       <c r="I91">
         <v>1982.50898181821</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>214.632797202832</v>
+        <v>29.5771406078946</v>
       </c>
       <c r="L91">
         <v>960</v>
       </c>
       <c r="M91">
-        <v>195.160919752832</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H92">
-        <v>5602.69413953489</v>
+        <v>5633.69452412215</v>
       </c>
       <c r="I92">
         <v>2135.21418181822</v>
@@ -8869,16 +8869,16 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>29.4503653578946</v>
       </c>
       <c r="L92">
-        <v>1003.9507184413</v>
+        <v>960</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N92">
-        <v>19.3451022</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>1000</v>
@@ -8952,7 +8952,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H93">
-        <v>5226.39897674419</v>
+        <v>5364.43813435223</v>
       </c>
       <c r="I93">
         <v>2167.91938181822</v>
@@ -8961,16 +8961,16 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>131.137199727631</v>
       </c>
       <c r="L93">
-        <v>996.350025276773</v>
+        <v>960</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>111.747609077631</v>
       </c>
       <c r="N93">
-        <v>19.38959065</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>1000</v>
@@ -9044,7 +9044,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H94">
-        <v>5508.04538074297</v>
+        <v>5528.45547616402</v>
       </c>
       <c r="I94">
         <v>2100.62458181823</v>
@@ -9053,13 +9053,13 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>625.04448845</v>
+        <v>644.4340791</v>
       </c>
       <c r="L94">
-        <v>988.756626358318</v>
+        <v>984.140057155937</v>
       </c>
       <c r="M94">
-        <v>605.6104093500001</v>
+        <v>625</v>
       </c>
       <c r="N94">
         <v>0</v>

--- a/DayAhead Electric DR.xlsx
+++ b/DayAhead Electric DR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>交流负荷</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>中品位热功率</t>
-  </si>
-  <si>
-    <t>低品位热功率</t>
   </si>
   <si>
     <t>期望电功率</t>
@@ -459,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,11 +544,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -634,13 +628,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -723,13 +714,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -812,13 +800,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -901,13 +886,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -990,13 +972,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1079,13 +1058,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1168,13 +1144,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1257,13 +1230,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1346,13 +1316,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1435,13 +1402,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1524,13 +1488,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1613,13 +1574,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1702,13 +1660,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1791,13 +1746,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1880,13 +1832,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1969,13 +1918,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2058,13 +2004,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2147,13 +2090,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2236,13 +2176,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2325,13 +2262,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2414,13 +2348,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2503,13 +2434,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2592,13 +2520,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2681,13 +2606,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2770,13 +2692,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2859,13 +2778,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2948,13 +2864,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3037,13 +2950,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3126,13 +3036,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3215,13 +3122,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3304,13 +3208,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3393,13 +3294,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3482,13 +3380,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3571,13 +3466,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3660,13 +3552,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3749,13 +3638,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3838,13 +3724,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3927,13 +3810,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4016,13 +3896,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4105,13 +3982,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4194,13 +4068,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4283,13 +4154,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4372,13 +4240,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4461,13 +4326,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4550,13 +4412,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4639,13 +4498,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4728,13 +4584,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4817,13 +4670,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4906,13 +4756,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4995,13 +4842,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5084,13 +4928,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5119,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>53.2273567974054</v>
+        <v>53.2273567974105</v>
       </c>
       <c r="K53">
         <v>10002.4492020035</v>
       </c>
       <c r="L53">
-        <v>381.586609797405</v>
+        <v>381.586609797411</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5173,13 +5014,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5208,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>678.262265497405</v>
+        <v>678.2622654974</v>
       </c>
       <c r="K54">
         <v>10068.0698988254</v>
       </c>
       <c r="L54">
-        <v>1006.58660979741</v>
+        <v>1006.5866097974</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5262,13 +5100,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5351,13 +5186,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5440,13 +5272,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5529,13 +5358,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5618,13 +5444,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5707,13 +5530,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5796,13 +5616,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5885,13 +5702,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5974,13 +5788,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6063,13 +5874,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6152,13 +5960,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6241,13 +6046,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6330,13 +6132,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6419,13 +6218,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6508,13 +6304,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6597,13 +6390,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6686,13 +6476,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6775,13 +6562,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6864,13 +6648,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6953,13 +6734,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7042,13 +6820,10 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-      <c r="AC74">
         <v>4722.17668097461</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7131,13 +6906,10 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1684.444082121212</v>
-      </c>
-      <c r="AC75">
         <v>4435.82943953605</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7220,13 +6992,10 @@
         <v>2919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-      <c r="AC76">
         <v>3814.82427324652</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7309,13 +7078,10 @@
         <v>2694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-      <c r="AC77">
         <v>3696.55191137791</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7398,13 +7164,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7487,13 +7250,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7576,13 +7336,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7665,13 +7422,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7754,13 +7508,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7843,13 +7594,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7932,13 +7680,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8021,13 +7766,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8110,13 +7852,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8199,13 +7938,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8288,13 +8024,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8377,13 +8110,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8466,13 +8196,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8555,13 +8282,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8644,13 +8368,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8733,13 +8454,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8822,13 +8540,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8911,13 +8626,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9000,13 +8712,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9026,7 +8735,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -9059,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -9071,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -9089,9 +8798,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>8000</v>
       </c>
     </row>
@@ -9102,13 +8808,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9190,11 +8896,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9235,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O2">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P2">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -9277,13 +8980,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9324,13 +9024,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O3">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P3">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -9366,13 +9066,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9413,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O4">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P4">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -9446,7 +9143,7 @@
         <v>300</v>
       </c>
       <c r="Y4">
-        <v>620.8700644848481</v>
+        <v>620.8700644848489</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9455,13 +9152,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9502,13 +9196,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O5">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P5">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -9544,13 +9238,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9591,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O6">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P6">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -9633,13 +9324,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9680,13 +9368,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O7">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P7">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -9722,13 +9410,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9769,13 +9454,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O8">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P8">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -9811,13 +9496,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9858,13 +9540,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O9">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P9">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -9891,7 +9573,7 @@
         <v>300</v>
       </c>
       <c r="Y9">
-        <v>616.8700644848481</v>
+        <v>616.8700644848489</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -9900,13 +9582,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9947,13 +9626,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O10">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P10">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -9989,13 +9668,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10036,13 +9712,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O11">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P11">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -10078,13 +9754,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10125,13 +9798,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O12">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P12">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -10167,13 +9840,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10214,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O13">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P13">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -10256,13 +9926,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10303,13 +9970,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O14">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P14">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -10336,7 +10003,7 @@
         <v>668.478473047381</v>
       </c>
       <c r="Y14">
-        <v>584.070064484848</v>
+        <v>584.0700644848488</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -10345,13 +10012,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10392,13 +10056,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O15">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P15">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q15">
         <v>0.122170075</v>
@@ -10434,13 +10098,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10481,13 +10142,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O16">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P16">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q16">
         <v>0.24434015</v>
@@ -10523,13 +10184,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10570,13 +10228,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O17">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P17">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q17">
         <v>1.5096731</v>
@@ -10612,13 +10270,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10659,13 +10314,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O18">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P18">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q18">
         <v>2.77500605</v>
@@ -10701,13 +10356,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10748,13 +10400,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O19">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P19">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q19">
         <v>5.9601545</v>
@@ -10781,7 +10433,7 @@
         <v>1222.07486953281</v>
       </c>
       <c r="Y19">
-        <v>605.670064484848</v>
+        <v>605.6700644848488</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -10790,13 +10442,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10837,13 +10486,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O20">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P20">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q20">
         <v>9.14530295</v>
@@ -10879,13 +10528,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10926,13 +10572,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O21">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P21">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q21">
         <v>13.94484173</v>
@@ -10968,13 +10614,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11015,13 +10658,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O22">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P22">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q22">
         <v>18.7443805</v>
@@ -11057,13 +10700,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11104,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O23">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P23">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q23">
         <v>26.91668605</v>
@@ -11146,13 +10786,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11193,13 +10830,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O24">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P24">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q24">
         <v>35.0889916</v>
@@ -11226,7 +10863,7 @@
         <v>1770.1574016658</v>
       </c>
       <c r="Y24">
-        <v>595.270064484848</v>
+        <v>595.2700644848488</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -11235,13 +10872,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11282,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O25">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P25">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q25">
         <v>47.99538765</v>
@@ -11324,13 +10958,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11371,13 +11002,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O26">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P26">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q26">
         <v>60.9017837</v>
@@ -11413,13 +11044,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11460,13 +11088,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O27">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P27">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q27">
         <v>74.39721408</v>
@@ -11502,13 +11130,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11549,13 +11174,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O28">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P28">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q28">
         <v>87.89264445000001</v>
@@ -11591,13 +11216,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11638,13 +11260,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O29">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P29">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q29">
         <v>110.5464674</v>
@@ -11671,7 +11293,7 @@
         <v>2312.78098797597</v>
       </c>
       <c r="Y29">
-        <v>568.8700644848481</v>
+        <v>568.8700644848489</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -11680,13 +11302,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11727,13 +11346,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O30">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P30">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q30">
         <v>133.2002904</v>
@@ -11769,13 +11388,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11816,13 +11432,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O31">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P31">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q31">
         <v>160.9459877</v>
@@ -11858,13 +11474,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11905,22 +11518,22 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O32">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P32">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q32">
         <v>188.691685</v>
       </c>
       <c r="R32">
-        <v>149.639519887245</v>
+        <v>149.639519887244</v>
       </c>
       <c r="S32">
-        <v>643.4499355151535</v>
+        <v>643.4499355151491</v>
       </c>
       <c r="T32">
         <v>166.666666666667</v>
@@ -11947,13 +11560,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11994,13 +11604,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>50.0000000000002</v>
       </c>
       <c r="O33">
-        <v>60.90909090909089</v>
+        <v>60.90909090909113</v>
       </c>
       <c r="P33">
-        <v>40.60606060606059</v>
+        <v>40.60606060606077</v>
       </c>
       <c r="Q33">
         <v>203.3171886</v>
@@ -12036,13 +11646,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12125,13 +11732,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12214,13 +11818,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12303,13 +11904,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12392,13 +11990,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12481,13 +12076,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12570,13 +12162,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12659,13 +12248,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12748,13 +12334,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12774,7 +12357,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G42">
-        <v>4087.02866044419</v>
+        <v>4087.02866044418</v>
       </c>
       <c r="H42">
         <v>2362.63018181818</v>
@@ -12837,13 +12420,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12926,13 +12506,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12952,7 +12529,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>4653.21225534884</v>
+        <v>4653.21225534883</v>
       </c>
       <c r="H44">
         <v>2500.45258181818</v>
@@ -13015,13 +12592,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13104,13 +12678,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13193,13 +12764,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13219,7 +12787,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>4635.56512080233</v>
+        <v>4635.56512080232</v>
       </c>
       <c r="H47">
         <v>2975.74708181818</v>
@@ -13282,13 +12850,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13371,13 +12936,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13460,13 +13022,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13549,13 +13108,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13638,13 +13194,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13727,13 +13280,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13759,7 +13309,7 @@
         <v>4327.79278181818</v>
       </c>
       <c r="I53">
-        <v>293.294072487153</v>
+        <v>293.294072487154</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -13768,7 +13318,7 @@
         <v>10002.4492020035</v>
       </c>
       <c r="L53">
-        <v>35.0651805128474</v>
+        <v>35.0651805128458</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -13816,13 +13366,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13851,13 +13398,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>331.740836212847</v>
+        <v>331.740836212846</v>
       </c>
       <c r="K54">
         <v>9985.77105937031</v>
       </c>
       <c r="L54">
-        <v>660.065180512847</v>
+        <v>660.065180512846</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -13905,13 +13452,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13994,13 +13538,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14083,13 +13624,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14172,13 +13710,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14261,13 +13796,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14299,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>9671.09229918665</v>
+        <v>9671.092299186639</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -14350,13 +13882,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14439,13 +13968,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14528,13 +14054,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14617,13 +14140,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14706,13 +14226,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14744,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>7914.27288807619</v>
+        <v>7914.27288807618</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -14795,13 +14312,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14884,13 +14398,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14973,13 +14484,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15062,13 +14570,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15151,13 +14656,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15240,13 +14742,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15329,13 +14828,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15418,13 +14914,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15507,13 +15000,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15596,13 +15086,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15685,13 +15172,10 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-      <c r="AC74">
         <v>4871.595285625772</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15720,13 +15204,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>6.2862767453563</v>
+        <v>6.28627674535159</v>
       </c>
       <c r="K75">
         <v>6045.96704113675</v>
       </c>
       <c r="L75">
-        <v>27.3255813953563</v>
+        <v>27.3255813953516</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -15774,13 +15258,10 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1684.444082121216</v>
-      </c>
-      <c r="AC75">
         <v>4585.248044187212</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15812,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>6037.34194911531</v>
+        <v>6037.3419491153</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -15863,13 +15344,10 @@
         <v>2919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-      <c r="AC76">
         <v>3964.242877897682</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15895,7 +15373,7 @@
         <v>2694.88243181818</v>
       </c>
       <c r="I77">
-        <v>1226.33301885465</v>
+        <v>1226.33301885464</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -15907,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1222.67441860465</v>
+        <v>1222.67441860464</v>
       </c>
       <c r="N77">
         <v>1000</v>
@@ -15952,13 +15430,10 @@
         <v>2694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-      <c r="AC77">
         <v>3845.970516029072</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16041,13 +15516,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16130,13 +15602,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16219,13 +15688,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -16308,13 +15774,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16397,13 +15860,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16486,13 +15946,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16575,13 +16032,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16664,13 +16118,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16753,13 +16204,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16842,13 +16290,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16931,13 +16376,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17020,13 +16462,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17109,13 +16548,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17198,13 +16634,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17287,13 +16720,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17376,13 +16806,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17465,13 +16892,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17554,13 +16978,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17643,13 +17064,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17669,7 +17087,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -17702,10 +17120,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -17714,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -17732,9 +17150,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>8000</v>
       </c>
     </row>
@@ -17745,13 +17160,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17833,11 +17248,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17920,13 +17332,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18009,13 +17418,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18098,13 +17504,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18187,13 +17590,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18276,13 +17676,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18365,13 +17762,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18454,13 +17848,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18543,13 +17934,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18632,13 +18020,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18721,13 +18106,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18810,13 +18192,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18899,13 +18278,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18988,13 +18364,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -19077,13 +18450,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19166,13 +18536,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19255,13 +18622,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19344,13 +18708,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19433,13 +18794,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19522,13 +18880,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19611,13 +18966,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19700,13 +19052,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19789,13 +19138,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19878,13 +19224,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19967,13 +19310,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -20056,13 +19396,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -20145,13 +19482,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -20234,13 +19568,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -20323,13 +19654,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -20412,13 +19740,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -20501,13 +19826,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -20590,13 +19912,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -20679,13 +19998,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -20768,13 +20084,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20857,13 +20170,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20946,13 +20256,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21035,13 +20342,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21124,13 +20428,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21213,13 +20514,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21302,13 +20600,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -21391,13 +20686,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -21480,13 +20772,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -21569,13 +20858,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -21658,13 +20944,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -21747,13 +21030,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -21836,13 +21116,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -21925,13 +21202,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -22014,13 +21288,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22103,13 +21374,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -22192,13 +21460,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -22281,13 +21546,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -22370,13 +21632,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -22459,13 +21718,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -22548,13 +21804,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -22637,13 +21890,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -22726,13 +21976,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -22815,13 +22062,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -22904,13 +22148,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -22993,13 +22234,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -23082,13 +22320,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -23171,13 +22406,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -23260,13 +22492,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -23349,13 +22578,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -23438,13 +22664,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -23527,13 +22750,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -23616,13 +22836,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -23705,13 +22922,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -23794,13 +23008,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -23883,13 +23094,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -23972,13 +23180,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -24061,13 +23266,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -24150,13 +23352,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -24239,13 +23438,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -24328,13 +23524,10 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-      <c r="AC74">
         <v>5021.013890276934</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -24417,13 +23610,10 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1684.444082121212</v>
-      </c>
-      <c r="AC75">
         <v>4734.666648838374</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -24506,13 +23696,10 @@
         <v>2919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-      <c r="AC76">
         <v>4113.661482548844</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -24595,13 +23782,10 @@
         <v>2694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-      <c r="AC77">
         <v>3995.389120680234</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -24684,13 +23868,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -24773,13 +23954,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -24862,13 +24040,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -24951,13 +24126,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -25040,13 +24212,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -25129,13 +24298,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -25218,13 +24384,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -25307,13 +24470,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -25396,13 +24556,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -25485,13 +24642,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -25574,13 +24728,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -25663,13 +24814,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -25752,13 +24900,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -25841,13 +24986,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -25930,13 +25072,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -26019,13 +25158,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -26108,13 +25244,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -26197,13 +25330,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -26286,13 +25416,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -26312,7 +25439,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -26345,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -26357,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -26375,9 +25502,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>8000</v>
       </c>
     </row>
@@ -26388,13 +25512,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26476,11 +25600,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26563,13 +25684,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26652,13 +25770,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26741,13 +25856,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26830,13 +25942,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26919,13 +26028,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27008,13 +26114,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27097,13 +26200,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27186,13 +26286,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27275,13 +26372,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27364,13 +26458,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27453,13 +26544,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27542,13 +26630,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27631,13 +26716,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -27720,13 +26802,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -27809,13 +26888,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -27898,13 +26974,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27987,13 +27060,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -28076,13 +27146,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -28165,13 +27232,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -28254,13 +27318,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -28343,13 +27404,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -28432,13 +27490,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -28521,13 +27576,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -28610,13 +27662,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -28699,13 +27748,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28788,13 +27834,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28877,13 +27920,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28966,13 +28006,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -29055,13 +28092,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -29144,13 +28178,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29233,13 +28264,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -29322,13 +28350,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -29411,13 +28436,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -29500,13 +28522,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -29589,13 +28608,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -29678,13 +28694,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -29767,13 +28780,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -29856,13 +28866,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -29945,13 +28952,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30034,13 +29038,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30123,13 +29124,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30212,13 +29210,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30301,13 +29296,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30390,13 +29382,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30479,13 +29468,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -30568,13 +29554,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -30657,13 +29640,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -30746,13 +29726,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -30835,13 +29812,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -30924,13 +29898,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31013,13 +29984,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -31102,13 +30070,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31191,13 +30156,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31280,13 +30242,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -31369,13 +30328,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -31458,13 +30414,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -31547,13 +30500,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -31636,13 +30586,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -31725,13 +30672,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -31814,13 +30758,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -31903,13 +30844,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -31992,13 +30930,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -32081,13 +31016,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -32170,13 +31102,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -32259,13 +31188,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -32348,13 +31274,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -32437,13 +31360,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -32526,13 +31446,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -32615,13 +31532,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -32704,13 +31618,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -32793,13 +31704,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -32882,13 +31790,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -32971,13 +31876,10 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-      <c r="AC74">
         <v>5170.432494928095</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -33060,13 +31962,10 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1684.444082121212</v>
-      </c>
-      <c r="AC75">
         <v>4884.085253489536</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -33149,13 +32048,10 @@
         <v>2919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-      <c r="AC76">
         <v>4263.080087200006</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -33238,13 +32134,10 @@
         <v>2694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-      <c r="AC77">
         <v>4144.807725331396</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -33327,13 +32220,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -33416,13 +32306,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -33505,13 +32392,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -33594,13 +32478,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -33683,13 +32564,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -33772,13 +32650,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -33861,13 +32736,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -33950,13 +32822,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -34039,13 +32908,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -34128,13 +32994,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -34217,13 +33080,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -34306,13 +33166,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -34395,13 +33252,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -34484,13 +33338,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -34573,13 +33424,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -34662,13 +33510,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -34751,13 +33596,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -34840,13 +33682,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -34929,13 +33768,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -34955,7 +33791,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -34988,10 +33824,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -35000,7 +33836,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -35018,9 +33854,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>8000</v>
       </c>
     </row>
@@ -35031,13 +33864,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35119,11 +33952,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -35206,13 +34036,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -35295,13 +34122,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -35384,13 +34208,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -35473,13 +34294,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -35562,13 +34380,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -35651,13 +34466,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -35740,13 +34552,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -35829,13 +34638,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35918,13 +34724,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -36007,13 +34810,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -36096,13 +34896,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -36185,13 +34982,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -36274,13 +35068,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -36363,13 +35154,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -36452,13 +35240,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -36541,13 +35326,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -36630,13 +35412,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -36719,13 +35498,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -36808,13 +35584,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -36897,13 +35670,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -36986,13 +35756,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -37075,13 +35842,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -37164,13 +35928,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -37253,13 +36014,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -37342,13 +36100,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -37431,13 +36186,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -37520,13 +36272,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -37609,13 +36358,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -37698,13 +36444,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -37787,13 +36530,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -37876,13 +36616,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -37965,13 +36702,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -38054,13 +36788,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -38143,13 +36874,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -38232,13 +36960,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -38321,13 +37046,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -38410,13 +37132,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -38499,13 +37218,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -38588,13 +37304,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -38677,13 +37390,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -38766,13 +37476,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -38855,13 +37562,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -38944,13 +37648,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -39033,13 +37734,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -39122,13 +37820,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -39211,13 +37906,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -39300,13 +37992,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -39389,13 +38078,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -39478,13 +38164,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -39567,13 +38250,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -39656,13 +38336,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -39745,13 +38422,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -39834,13 +38508,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -39923,13 +38594,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -40012,13 +38680,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -40101,13 +38766,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -40190,13 +38852,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -40279,13 +38938,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -40368,13 +39024,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -40457,13 +39110,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -40546,13 +39196,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -40635,13 +39282,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -40724,13 +39368,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -40813,13 +39454,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -40902,13 +39540,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -40991,13 +39626,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -41080,13 +39712,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -41169,13 +39798,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -41258,13 +39884,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -41347,13 +39970,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -41382,13 +40002,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>94.4267901824289</v>
+        <v>94.4267901824269</v>
       </c>
       <c r="K72">
         <v>5340.90232256832</v>
       </c>
       <c r="L72">
-        <v>149.856911332429</v>
+        <v>149.856911332427</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -41436,13 +40056,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -41471,13 +40088,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>731.23450250243</v>
+        <v>731.2345025024269</v>
       </c>
       <c r="K73">
         <v>5363.14108320335</v>
       </c>
       <c r="L73">
-        <v>774.8569113324299</v>
+        <v>774.856911332427</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -41525,13 +40142,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -41614,13 +40228,10 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-      <c r="AC74">
         <v>5319.851099579258</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -41703,13 +40314,10 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1684.444082121212</v>
-      </c>
-      <c r="AC75">
         <v>5033.503858140698</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -41792,13 +40400,10 @@
         <v>2919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-      <c r="AC76">
         <v>4412.498691851168</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -41881,13 +40486,10 @@
         <v>2694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-      <c r="AC77">
         <v>4294.226329982558</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -41970,13 +40572,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -42059,13 +40658,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -42148,13 +40744,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -42237,13 +40830,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -42326,13 +40916,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -42415,13 +41002,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -42504,13 +41088,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -42593,13 +41174,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -42682,13 +41260,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -42771,13 +41346,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -42860,13 +41432,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -42949,13 +41518,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -43038,13 +41604,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -43127,13 +41690,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -43216,13 +41776,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -43305,13 +41862,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -43394,13 +41948,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -43483,13 +42034,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -43572,13 +42120,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -43598,7 +42143,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -43631,10 +42176,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -43643,7 +42188,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -43661,9 +42206,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>8000</v>
       </c>
     </row>

--- a/DayAhead Electric DR.xlsx
+++ b/DayAhead Electric DR.xlsx
@@ -7069,7 +7069,7 @@
         <v>989.403719223071</v>
       </c>
       <c r="Y77">
-        <v>799.9999999999857</v>
+        <v>799.9999999999849</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>3850.96136048465</v>
+        <v>3851.50597088914</v>
       </c>
       <c r="H81">
         <v>1797.78223181818</v>
@@ -7392,10 +7392,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R81">
-        <v>147.642096675862</v>
+        <v>148.160773251563</v>
       </c>
       <c r="S81">
-        <v>634.8610157062066</v>
+        <v>637.0913249817208</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>423.432736293795</v>
+        <v>421.202427018281</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>309.145646800378</v>
+        <v>309.765177154687</v>
       </c>
       <c r="Y82">
         <v>502.1792</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -8735,7 +8735,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -8744,13 +8744,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>9356.506966927651</v>
+        <v>9356.50696692766</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>6908.55741276038</v>
+        <v>6908.55741276039</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -15121,7 +15121,7 @@
         <v>255.358092862977</v>
       </c>
       <c r="K74">
-        <v>6015.45473032806</v>
+        <v>6015.45473032807</v>
       </c>
       <c r="L74">
         <v>287.172789362977</v>
@@ -15201,7 +15201,7 @@
         <v>3143.43253181818</v>
       </c>
       <c r="I75">
-        <v>24.2085904360465</v>
+        <v>24.2085904360495</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>3.16928578604654</v>
+        <v>3.1692857860495</v>
       </c>
       <c r="N75">
         <v>1000</v>
@@ -15797,7 +15797,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3935.10503332789</v>
+        <v>3935.64855451157</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -15830,10 +15830,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>149.715506359899</v>
+        <v>150.233145582449</v>
       </c>
       <c r="S82">
-        <v>643.7766773475656</v>
+        <v>646.0025260045306</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>405.756122652433</v>
+        <v>403.53027399547</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -16192,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -16278,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -16536,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -16622,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -17087,7 +17087,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -17096,13 +17096,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -24149,7 +24149,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -24182,10 +24182,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -24802,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -25146,7 +25146,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -25404,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -25439,7 +25439,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -25448,13 +25448,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -32501,7 +32501,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -32534,10 +32534,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -32724,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -32896,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -32982,7 +32982,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -33068,7 +33068,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -33154,7 +33154,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -33240,7 +33240,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -33326,7 +33326,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -33412,7 +33412,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -33498,7 +33498,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -33584,7 +33584,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -33670,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -33756,7 +33756,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -33791,7 +33791,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -33800,13 +33800,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -40002,13 +40002,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>110.62110453952</v>
+        <v>110.621104539523</v>
       </c>
       <c r="K72">
         <v>5340.90232256832</v>
       </c>
       <c r="L72">
-        <v>166.05122568952</v>
+        <v>166.051225689523</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -40088,13 +40088,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>747.42881685952</v>
+        <v>747.428816859523</v>
       </c>
       <c r="K73">
         <v>5366.98723286316</v>
       </c>
       <c r="L73">
-        <v>791.05122568952</v>
+        <v>791.051225689523</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -40853,7 +40853,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -40886,10 +40886,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -40898,7 +40898,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -40990,7 +40990,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -41076,7 +41076,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -41162,7 +41162,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -41248,7 +41248,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -41334,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -41420,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -41506,7 +41506,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -41592,7 +41592,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -41678,7 +41678,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -41764,7 +41764,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -41850,7 +41850,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -41936,7 +41936,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -42022,7 +42022,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -42108,7 +42108,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -42143,7 +42143,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -42152,13 +42152,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -42194,7 +42194,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>

--- a/DayAhead Electric DR.xlsx
+++ b/DayAhead Electric DR.xlsx
@@ -4865,13 +4865,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>4290.11287176313</v>
+        <v>4290.11287176314</v>
       </c>
       <c r="H52">
         <v>4211.28022181818</v>
       </c>
       <c r="I52">
-        <v>212.719277345703</v>
+        <v>212.719277345702</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>10027.517996996</v>
       </c>
       <c r="L52">
-        <v>115.674884254297</v>
+        <v>115.674884254298</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4960,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>412.315631254297</v>
+        <v>412.315631254298</v>
       </c>
       <c r="K53">
         <v>10029.9219870139</v>
       </c>
       <c r="L53">
-        <v>740.674884254297</v>
+        <v>740.674884254298</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>7195.39414412515</v>
+        <v>7195.39414412514</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>569.56987885</v>
       </c>
       <c r="K72">
-        <v>5962.37648358386</v>
+        <v>5962.37648358385</v>
       </c>
       <c r="L72">
         <v>625</v>
@@ -6849,7 +6849,7 @@
         <v>3143.43253181818</v>
       </c>
       <c r="I75">
-        <v>304.600822952324</v>
+        <v>304.600822952322</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>283.561518302324</v>
+        <v>283.561518302322</v>
       </c>
       <c r="N75">
         <v>1000</v>
@@ -13312,13 +13312,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>8.243596646650991</v>
+        <v>8.243596646656901</v>
       </c>
       <c r="K53">
         <v>10002.4492020035</v>
       </c>
       <c r="L53">
-        <v>336.602849646651</v>
+        <v>336.602849646657</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -13398,13 +13398,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>633.2785053466509</v>
+        <v>633.278505346657</v>
       </c>
       <c r="K54">
         <v>10057.3862557896</v>
       </c>
       <c r="L54">
-        <v>961.602849646651</v>
+        <v>961.602849646657</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>8404.0951933463</v>
+        <v>8404.095193346309</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>7356.84486894604</v>
+        <v>7356.84486894605</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -40002,13 +40002,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>163.025129752051</v>
+        <v>163.02512975205</v>
       </c>
       <c r="K72">
         <v>5340.90232256832</v>
       </c>
       <c r="L72">
-        <v>218.455250902051</v>
+        <v>218.45525090205</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -40088,13 +40088,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>799.832842072051</v>
+        <v>799.83284207205</v>
       </c>
       <c r="K73">
         <v>5379.43318885113</v>
       </c>
       <c r="L73">
-        <v>843.455250902051</v>
+        <v>843.45525090205</v>
       </c>
       <c r="M73">
         <v>0</v>

--- a/DayAhead Electric DR.xlsx
+++ b/DayAhead Electric DR.xlsx
@@ -4865,13 +4865,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>4290.11287176314</v>
+        <v>4290.11287176313</v>
       </c>
       <c r="H52">
         <v>4211.28022181818</v>
       </c>
       <c r="I52">
-        <v>212.719277345702</v>
+        <v>212.719277345703</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>10027.517996996</v>
       </c>
       <c r="L52">
-        <v>115.674884254298</v>
+        <v>115.674884254297</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4960,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>412.315631254298</v>
+        <v>412.315631254297</v>
       </c>
       <c r="K53">
         <v>10029.9219870139</v>
       </c>
       <c r="L53">
-        <v>740.674884254298</v>
+        <v>740.674884254297</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -13312,13 +13312,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>8.243596646656901</v>
+        <v>8.243596646651371</v>
       </c>
       <c r="K53">
         <v>10002.4492020035</v>
       </c>
       <c r="L53">
-        <v>336.602849646657</v>
+        <v>336.602849646651</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -13398,13 +13398,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>633.278505346657</v>
+        <v>633.27850534665</v>
       </c>
       <c r="K54">
         <v>10057.3862557896</v>
       </c>
       <c r="L54">
-        <v>961.602849646657</v>
+        <v>961.60284964665</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>8404.095193346309</v>
+        <v>8404.0951933463</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>7356.84486894605</v>
+        <v>7356.84486894604</v>
       </c>
       <c r="L66">
         <v>0</v>
